--- a/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
@@ -7,20 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BYD SEAL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="XPENG G9" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="VINFAST VF8" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Honda ZR-V" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="BYD SEAL-U" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Volkswagen ID.7" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BMW 5 series" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="smart #3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="BYD TANG" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Hyundai KONA" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Kia EV9" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="NIO ET5" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="NIO EL7" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Lexus RZ" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="NIO EL7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NIO ET5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lexus RZ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BYD SEAL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BMW 5 series" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BYD SEAL-U" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BYD TANG" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Honda ZR-V" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Hyundai KONA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Kia EV9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="smart #3" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="VINFAST VF8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Volkswagen ID.7" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="XPENG G9" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0371900826446281</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>48.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4256198347107438</v>
+        <v>0.251937984496124</v>
       </c>
     </row>
     <row r="5">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.268595041322314</v>
+        <v>0.1782945736434109</v>
       </c>
     </row>
     <row r="6">
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="7">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1694214876033058</v>
+        <v>0.189922480620155</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.0310077519379845</v>
       </c>
     </row>
     <row r="9">
@@ -611,10 +611,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>121.25</v>
+        <v>148.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.3830645161290323</v>
       </c>
     </row>
     <row r="4">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>60.75</v>
+        <v>56.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3521739130434783</v>
+        <v>0.3024193548387097</v>
       </c>
     </row>
     <row r="5">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.1048387096774194</v>
       </c>
     </row>
     <row r="6">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="8">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>155.5</v>
+        <v>167.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.07327586206896551</v>
       </c>
     </row>
     <row r="3">
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3830645161290323</v>
+        <v>0.3663793103448276</v>
       </c>
     </row>
     <row r="4">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>56.25</v>
+        <v>41.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3024193548387097</v>
+        <v>0.2370689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1163793103448276</v>
       </c>
     </row>
     <row r="6">
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="7">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1209677419354839</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="8">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="9">
@@ -997,10 +997,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>167.25</v>
+        <v>159.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.4008264462809917</v>
       </c>
     </row>
     <row r="4">
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>76.5</v>
+        <v>36.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.2024793388429752</v>
       </c>
     </row>
     <row r="5">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1434108527131783</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06589147286821706</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -1141,13 +1141,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1356589147286822</v>
+        <v>0.2148760330578512</v>
       </c>
     </row>
     <row r="8">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06201550387596899</v>
+        <v>0.04958677685950413</v>
       </c>
     </row>
     <row r="9">
@@ -1190,10 +1190,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>150.25</v>
+        <v>147.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04201680672268908</v>
       </c>
     </row>
     <row r="3">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.3403361344537815</v>
       </c>
     </row>
     <row r="4">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>48.75</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.251937984496124</v>
+        <v>0.4327731092436975</v>
       </c>
     </row>
     <row r="5">
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1782945736434109</v>
+        <v>0.03361344537815126</v>
       </c>
     </row>
     <row r="6">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06976744186046512</v>
+        <v>0.02521008403361345</v>
       </c>
     </row>
     <row r="7">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.189922480620155</v>
+        <v>0.06722689075630252</v>
       </c>
     </row>
     <row r="8">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0310077519379845</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="9">
@@ -1383,10 +1383,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>148.25</v>
+        <v>173.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.1150793650793651</v>
       </c>
     </row>
     <row r="4">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>44.25</v>
+        <v>55.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2936507936507937</v>
       </c>
     </row>
     <row r="5">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1031746031746032</v>
       </c>
     </row>
     <row r="7">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04782608695652174</v>
+        <v>0.2420634920634921</v>
       </c>
     </row>
     <row r="8">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -1576,10 +1576,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>158.75</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1150793650793651</v>
+        <v>0.1976744186046512</v>
       </c>
     </row>
     <row r="4">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5</v>
+        <v>76.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="5">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1434108527131783</v>
       </c>
     </row>
     <row r="6">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.06589147286821706</v>
       </c>
     </row>
     <row r="7">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2420634920634921</v>
+        <v>0.1356589147286822</v>
       </c>
     </row>
     <row r="8">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.06201550387596899</v>
       </c>
     </row>
     <row r="9">
@@ -1769,10 +1769,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>119</v>
+        <v>150.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4008264462809917</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>36.75</v>
+        <v>44.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2024793388429752</v>
+        <v>0.2565217391304348</v>
       </c>
     </row>
     <row r="5">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="6">
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="7">
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.04782608695652174</v>
       </c>
     </row>
     <row r="8">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -1962,10 +1962,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>147.25</v>
+        <v>158.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09130434782608696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2038,13 +2038,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.0371900826446281</v>
       </c>
     </row>
     <row r="4">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>59.25</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.4256198347107438</v>
       </c>
     </row>
     <row r="5">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>32.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.268595041322314</v>
       </c>
     </row>
     <row r="6">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.1694214876033058</v>
       </c>
     </row>
     <row r="8">
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.05785123966942149</v>
       </c>
     </row>
     <row r="9">
@@ -2155,10 +2155,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>157.75</v>
+        <v>121.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2217741935483871</v>
+        <v>0.6282051282051282</v>
       </c>
     </row>
     <row r="4">
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>62.25</v>
+        <v>25.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3346774193548387</v>
+        <v>0.1452991452991453</v>
       </c>
     </row>
     <row r="5">
@@ -2265,13 +2265,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1008064516129032</v>
+        <v>0.05982905982905983</v>
       </c>
     </row>
     <row r="6">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1370967741935484</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="7">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1733870967741936</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="8">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.03418803418803419</v>
       </c>
     </row>
     <row r="9">
@@ -2348,10 +2348,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>138.25</v>
+        <v>182</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2407,13 +2407,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04201680672268908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3403361344537815</v>
+        <v>0.2217741935483871</v>
       </c>
     </row>
     <row r="4">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>62.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4327731092436975</v>
+        <v>0.3346774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +2458,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03361344537815126</v>
+        <v>0.1008064516129032</v>
       </c>
     </row>
     <row r="6">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.1370967741935484</v>
       </c>
     </row>
     <row r="7">
@@ -2492,13 +2492,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06722689075630252</v>
+        <v>0.1733870967741936</v>
       </c>
     </row>
     <row r="8">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="9">
@@ -2541,10 +2541,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>173.75</v>
+        <v>138.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.2136752136752137</v>
       </c>
     </row>
     <row r="4">
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.3418803418803419</v>
       </c>
     </row>
     <row r="5">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.1239316239316239</v>
       </c>
     </row>
     <row r="6">
@@ -2668,13 +2668,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.09829059829059829</v>
       </c>
     </row>
     <row r="7">
@@ -2685,13 +2685,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1709401709401709</v>
       </c>
     </row>
     <row r="8">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="9">
@@ -2737,7 +2737,7 @@
         <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>130.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2793,13 +2793,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07327586206896551</v>
+        <v>0.09130434782608696</v>
       </c>
     </row>
     <row r="3">
@@ -2810,13 +2810,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3663793103448276</v>
+        <v>0.2782608695652174</v>
       </c>
     </row>
     <row r="4">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>41.25</v>
+        <v>59.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2370689655172414</v>
+        <v>0.3434782608695652</v>
       </c>
     </row>
     <row r="5">
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1163793103448276</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="6">
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.06956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="8">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -2927,10 +2927,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>159.75</v>
+        <v>157.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.3434782608695652</v>
       </c>
     </row>
     <row r="4">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>60.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3418803418803419</v>
+        <v>0.3521739130434783</v>
       </c>
     </row>
     <row r="5">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1239316239316239</v>
+        <v>0.1173913043478261</v>
       </c>
     </row>
     <row r="6">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09829059829059829</v>
+        <v>0.0391304347826087</v>
       </c>
     </row>
     <row r="7">
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="8">
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -3120,10 +3120,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>130.25</v>
+        <v>155.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>

--- a/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
@@ -7,20 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NIO EL7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NIO ET5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lexus RZ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BYD SEAL" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="BMW 5 series" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="BYD SEAL-U" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BYD TANG" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Honda ZR-V" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Hyundai KONA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Kia EV9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="smart #3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="VINFAST VF8" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Volkswagen ID.7" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="XPENG G9" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="BYD SEAL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="XPENG G9" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VINFAST VF8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Honda ZR-V" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BYD SEAL-U" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Volkswagen ID.7" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BMW 5 series" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="smart #3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BYD TANG" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hyundai KONA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Kia EV9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="NIO ET5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="NIO EL7" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Lexus RZ" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.0371900826446281</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>48.75</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.251937984496124</v>
+        <v>0.4256198347107438</v>
       </c>
     </row>
     <row r="5">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>32.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1782945736434109</v>
+        <v>0.268595041322314</v>
       </c>
     </row>
     <row r="6">
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06976744186046512</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.189922480620155</v>
+        <v>0.1694214876033058</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0310077519379845</v>
+        <v>0.05785123966942149</v>
       </c>
     </row>
     <row r="9">
@@ -611,10 +611,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>148.25</v>
+        <v>121.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3830645161290323</v>
+        <v>0.3434782608695652</v>
       </c>
     </row>
     <row r="4">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>56.25</v>
+        <v>60.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3024193548387097</v>
+        <v>0.3521739130434783</v>
       </c>
     </row>
     <row r="5">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1173913043478261</v>
       </c>
     </row>
     <row r="6">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.0391304347826087</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1209677419354839</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="8">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>167.25</v>
+        <v>155.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07327586206896551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3663793103448276</v>
+        <v>0.3830645161290323</v>
       </c>
     </row>
     <row r="4">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>41.25</v>
+        <v>56.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2370689655172414</v>
+        <v>0.3024193548387097</v>
       </c>
     </row>
     <row r="5">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1163793103448276</v>
+        <v>0.1048387096774194</v>
       </c>
     </row>
     <row r="6">
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="7">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="8">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="9">
@@ -997,10 +997,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>159.75</v>
+        <v>167.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4008264462809917</v>
+        <v>0.1976744186046512</v>
       </c>
     </row>
     <row r="4">
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>36.75</v>
+        <v>76.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2024793388429752</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="5">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1434108527131783</v>
       </c>
     </row>
     <row r="6">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.06589147286821706</v>
       </c>
     </row>
     <row r="7">
@@ -1141,13 +1141,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.1356589147286822</v>
       </c>
     </row>
     <row r="8">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.06201550387596899</v>
       </c>
     </row>
     <row r="9">
@@ -1190,10 +1190,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>147.25</v>
+        <v>150.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04201680672268908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3403361344537815</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="4">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>48.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4327731092436975</v>
+        <v>0.251937984496124</v>
       </c>
     </row>
     <row r="5">
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03361344537815126</v>
+        <v>0.1782945736434109</v>
       </c>
     </row>
     <row r="6">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="7">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06722689075630252</v>
+        <v>0.189922480620155</v>
       </c>
     </row>
     <row r="8">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0310077519379845</v>
       </c>
     </row>
     <row r="9">
@@ -1383,10 +1383,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>173.75</v>
+        <v>148.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1150793650793651</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5</v>
+        <v>44.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.2565217391304348</v>
       </c>
     </row>
     <row r="5">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="6">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="7">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2420634920634921</v>
+        <v>0.04782608695652174</v>
       </c>
     </row>
     <row r="8">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -1576,10 +1576,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>119</v>
+        <v>158.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.1150793650793651</v>
       </c>
     </row>
     <row r="4">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>76.5</v>
+        <v>55.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.2936507936507937</v>
       </c>
     </row>
     <row r="5">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1434108527131783</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06589147286821706</v>
+        <v>0.1031746031746032</v>
       </c>
     </row>
     <row r="7">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1356589147286822</v>
+        <v>0.2420634920634921</v>
       </c>
     </row>
     <row r="8">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06201550387596899</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -1769,10 +1769,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>150.25</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.4008264462809917</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>44.25</v>
+        <v>36.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2024793388429752</v>
       </c>
     </row>
     <row r="5">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04782608695652174</v>
+        <v>0.2148760330578512</v>
       </c>
     </row>
     <row r="8">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.04958677685950413</v>
       </c>
     </row>
     <row r="9">
@@ -1962,10 +1962,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>158.75</v>
+        <v>147.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.09130434782608696</v>
       </c>
     </row>
     <row r="3">
@@ -2038,13 +2038,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0371900826446281</v>
+        <v>0.2782608695652174</v>
       </c>
     </row>
     <row r="4">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>59.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4256198347107438</v>
+        <v>0.3434782608695652</v>
       </c>
     </row>
     <row r="5">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.268595041322314</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="6">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.06956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1694214876033058</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="8">
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -2155,10 +2155,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>121.25</v>
+        <v>157.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.2217741935483871</v>
       </c>
     </row>
     <row r="4">
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5</v>
+        <v>62.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.3346774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -2265,13 +2265,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.1008064516129032</v>
       </c>
     </row>
     <row r="6">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.1370967741935484</v>
       </c>
     </row>
     <row r="7">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1733870967741936</v>
       </c>
     </row>
     <row r="8">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="9">
@@ -2348,10 +2348,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>138.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2407,13 +2407,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04201680672268908</v>
       </c>
     </row>
     <row r="3">
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2217741935483871</v>
+        <v>0.3403361344537815</v>
       </c>
     </row>
     <row r="4">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>62.25</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3346774193548387</v>
+        <v>0.4327731092436975</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +2458,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1008064516129032</v>
+        <v>0.03361344537815126</v>
       </c>
     </row>
     <row r="6">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1370967741935484</v>
+        <v>0.02521008403361345</v>
       </c>
     </row>
     <row r="7">
@@ -2492,13 +2492,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1733870967741936</v>
+        <v>0.06722689075630252</v>
       </c>
     </row>
     <row r="8">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="9">
@@ -2541,10 +2541,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>138.25</v>
+        <v>173.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.6282051282051282</v>
       </c>
     </row>
     <row r="4">
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>25.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3418803418803419</v>
+        <v>0.1452991452991453</v>
       </c>
     </row>
     <row r="5">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1239316239316239</v>
+        <v>0.05982905982905983</v>
       </c>
     </row>
     <row r="6">
@@ -2668,13 +2668,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09829059829059829</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="7">
@@ -2685,13 +2685,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="8">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03418803418803419</v>
       </c>
     </row>
     <row r="9">
@@ -2737,7 +2737,7 @@
         <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>130.25</v>
+        <v>182</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2793,13 +2793,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.07327586206896551</v>
       </c>
     </row>
     <row r="3">
@@ -2810,13 +2810,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.3663793103448276</v>
       </c>
     </row>
     <row r="4">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>59.25</v>
+        <v>41.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.2370689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.1163793103448276</v>
       </c>
     </row>
     <row r="6">
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="7">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="8">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="9">
@@ -2927,10 +2927,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>157.75</v>
+        <v>159.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.2136752136752137</v>
       </c>
     </row>
     <row r="4">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>60.75</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3521739130434783</v>
+        <v>0.3418803418803419</v>
       </c>
     </row>
     <row r="5">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.1239316239316239</v>
       </c>
     </row>
     <row r="6">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.09829059829059829</v>
       </c>
     </row>
     <row r="7">
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1709401709401709</v>
       </c>
     </row>
     <row r="8">
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="9">
@@ -3120,10 +3120,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>155.5</v>
+        <v>130.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>

--- a/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
@@ -7,20 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BYD SEAL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="XPENG G9" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="VINFAST VF8" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Honda ZR-V" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="BYD SEAL-U" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Volkswagen ID.7" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BMW 5 series" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="smart #3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="BYD TANG" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Hyundai KONA" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Kia EV9" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="NIO ET5" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="NIO EL7" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Lexus RZ" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="XPENG G9" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VinFast VF8" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Volkswagen ID.7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BMW 5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="smart #3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Kia EV9" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NIO ET5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NIO EL7" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,13 +488,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0371900826446281</v>
+        <v>0.1150793650793651</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +505,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>55.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4256198347107438</v>
+        <v>0.2936507936507937</v>
       </c>
     </row>
     <row r="5">
@@ -528,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.268595041322314</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -545,13 +539,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.1031746031746032</v>
       </c>
     </row>
     <row r="7">
@@ -562,13 +556,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1694214876033058</v>
+        <v>0.2420634920634921</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +573,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -611,975 +605,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>121.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3434782608695652</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>81</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60.75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3521739130434783</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1173913043478261</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0391304347826087</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.09565217391304348</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05217391304347826</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>230</v>
-      </c>
-      <c r="D10" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>95</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3830645161290323</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3024193548387097</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1048387096774194</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.04838709677419355</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1209677419354839</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04032258064516129</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>248</v>
-      </c>
-      <c r="D10" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1976744186046512</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3953488372093023</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1434108527131783</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.06589147286821706</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1356589147286822</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06201550387596899</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>258</v>
-      </c>
-      <c r="D10" t="n">
-        <v>150.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2790697674418605</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.251937984496124</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1782945736434109</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>49</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.189922480620155</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0310077519379845</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>258</v>
-      </c>
-      <c r="D10" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2565217391304348</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1478260869565217</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.09565217391304348</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.04782608695652174</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05217391304347826</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>230</v>
-      </c>
-      <c r="D10" t="n">
-        <v>158.75</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1652,13 +681,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1150793650793651</v>
+        <v>0.4008264462809917</v>
       </c>
     </row>
     <row r="4">
@@ -1669,13 +698,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5</v>
+        <v>36.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.2024793388429752</v>
       </c>
     </row>
     <row r="5">
@@ -1686,13 +715,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -1703,13 +732,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -1720,13 +749,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2420634920634921</v>
+        <v>0.2148760330578512</v>
       </c>
     </row>
     <row r="8">
@@ -1737,13 +766,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.04958677685950413</v>
       </c>
     </row>
     <row r="9">
@@ -1769,10 +798,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>119</v>
+        <v>147.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1828,13 +857,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04201680672268908</v>
       </c>
     </row>
     <row r="3">
@@ -1845,13 +874,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4008264462809917</v>
+        <v>0.3403361344537815</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +891,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>36.75</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2024793388429752</v>
+        <v>0.4327731092436975</v>
       </c>
     </row>
     <row r="5">
@@ -1879,13 +908,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.03361344537815126</v>
       </c>
     </row>
     <row r="6">
@@ -1896,13 +925,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.02521008403361345</v>
       </c>
     </row>
     <row r="7">
@@ -1913,13 +942,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.06722689075630252</v>
       </c>
     </row>
     <row r="8">
@@ -1930,13 +959,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="9">
@@ -1962,10 +991,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>147.25</v>
+        <v>173.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2021,13 +1050,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09130434782608696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2038,13 +1067,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.6282051282051282</v>
       </c>
     </row>
     <row r="4">
@@ -2055,13 +1084,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>59.25</v>
+        <v>25.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.1452991452991453</v>
       </c>
     </row>
     <row r="5">
@@ -2072,13 +1101,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.05982905982905983</v>
       </c>
     </row>
     <row r="6">
@@ -2089,13 +1118,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="7">
@@ -2106,13 +1135,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="8">
@@ -2123,13 +1152,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.03418803418803419</v>
       </c>
     </row>
     <row r="9">
@@ -2155,10 +1184,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>157.75</v>
+        <v>182</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2214,13 +1243,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.07327586206896551</v>
       </c>
     </row>
     <row r="3">
@@ -2231,13 +1260,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2217741935483871</v>
+        <v>0.3663793103448276</v>
       </c>
     </row>
     <row r="4">
@@ -2248,13 +1277,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>62.25</v>
+        <v>41.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3346774193548387</v>
+        <v>0.2370689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -2265,13 +1294,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1008064516129032</v>
+        <v>0.1163793103448276</v>
       </c>
     </row>
     <row r="6">
@@ -2282,13 +1311,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1370967741935484</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="7">
@@ -2299,13 +1328,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1733870967741936</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="8">
@@ -2316,13 +1345,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="9">
@@ -2348,10 +1377,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>138.25</v>
+        <v>159.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2407,13 +1436,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04201680672268908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2424,13 +1453,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3403361344537815</v>
+        <v>0.3830645161290323</v>
       </c>
     </row>
     <row r="4">
@@ -2441,13 +1470,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>56.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4327731092436975</v>
+        <v>0.3024193548387097</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +1487,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03361344537815126</v>
+        <v>0.1048387096774194</v>
       </c>
     </row>
     <row r="6">
@@ -2475,13 +1504,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="7">
@@ -2492,13 +1521,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06722689075630252</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="8">
@@ -2509,13 +1538,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="9">
@@ -2541,10 +1570,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>173.75</v>
+        <v>167.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2617,13 +1646,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.1976744186046512</v>
       </c>
     </row>
     <row r="4">
@@ -2634,13 +1663,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5</v>
+        <v>76.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="5">
@@ -2651,13 +1680,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.1434108527131783</v>
       </c>
     </row>
     <row r="6">
@@ -2668,13 +1697,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.06589147286821706</v>
       </c>
     </row>
     <row r="7">
@@ -2685,13 +1714,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1356589147286822</v>
       </c>
     </row>
     <row r="8">
@@ -2702,13 +1731,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.06201550387596899</v>
       </c>
     </row>
     <row r="9">
@@ -2734,10 +1763,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>150.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2793,13 +1822,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07327586206896551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2810,13 +1839,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3663793103448276</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="4">
@@ -2827,13 +1856,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>41.25</v>
+        <v>48.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2370689655172414</v>
+        <v>0.251937984496124</v>
       </c>
     </row>
     <row r="5">
@@ -2844,13 +1873,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1163793103448276</v>
+        <v>0.1782945736434109</v>
       </c>
     </row>
     <row r="6">
@@ -2861,13 +1890,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="7">
@@ -2878,13 +1907,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.189922480620155</v>
       </c>
     </row>
     <row r="8">
@@ -2895,13 +1924,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0310077519379845</v>
       </c>
     </row>
     <row r="9">
@@ -2927,203 +1956,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>159.75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2136752136752137</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3418803418803419</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1239316239316239</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.09829059829059829</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1709401709401709</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>234</v>
-      </c>
-      <c r="D10" t="n">
-        <v>130.25</v>
+        <v>148.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>

--- a/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2023_cars_combined.xlsx
@@ -7,14 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="XPENG G9" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="VinFast VF8" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Volkswagen ID.7" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BMW 5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="smart #3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Kia EV9" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="NIO ET5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="NIO EL7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BYD SEAL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="XPENG G9" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VINFAST VF8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Honda ZR-V" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BYD SEAL-U" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Volkswagen ID.7" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BMW 5 series" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="smart #3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BYD TANG" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hyundai KONA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Kia EV9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="NIO ET5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="NIO EL7" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Lexus RZ" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,6 +445,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -488,13 +501,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1150793650793651</v>
+        <v>0.0371900826446281</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +518,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.4256198347107438</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>32.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.268595041322314</v>
       </c>
     </row>
     <row r="6">
@@ -539,13 +552,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -556,13 +569,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2420634920634921</v>
+        <v>0.1694214876033058</v>
       </c>
     </row>
     <row r="8">
@@ -573,13 +586,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05785123966942149</v>
       </c>
     </row>
     <row r="9">
@@ -605,10 +618,1010 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>119</v>
+        <v>121.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3434782608695652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3521739130434783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1173913043478261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0391304347826087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09565217391304348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05217391304347826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>230</v>
+      </c>
+      <c r="D10" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3830645161290323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3024193548387097</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1048387096774194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04838709677419355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1209677419354839</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04032258064516129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3953488372093023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1434108527131783</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06589147286821706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1356589147286822</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06201550387596899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>150.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2790697674418605</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.251937984496124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1782945736434109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.189922480620155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0310077519379845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2565217391304348</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1478260869565217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09565217391304348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04782608695652174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05217391304347826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>230</v>
+      </c>
+      <c r="D10" t="n">
+        <v>158.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -632,6 +1645,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -681,13 +1701,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4008264462809917</v>
+        <v>0.1150793650793651</v>
       </c>
     </row>
     <row r="4">
@@ -698,13 +1718,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>36.75</v>
+        <v>55.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2024793388429752</v>
+        <v>0.2936507936507937</v>
       </c>
     </row>
     <row r="5">
@@ -715,13 +1735,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +1752,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.1031746031746032</v>
       </c>
     </row>
     <row r="7">
@@ -749,13 +1769,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.2420634920634921</v>
       </c>
     </row>
     <row r="8">
@@ -766,13 +1786,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -798,10 +1818,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>147.25</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -825,6 +1845,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -857,13 +1884,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04201680672268908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -874,13 +1901,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3403361344537815</v>
+        <v>0.4008264462809917</v>
       </c>
     </row>
     <row r="4">
@@ -891,13 +1918,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>77.25</v>
+        <v>36.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4327731092436975</v>
+        <v>0.2024793388429752</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +1935,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03361344537815126</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -925,13 +1952,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="7">
@@ -942,13 +1969,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06722689075630252</v>
+        <v>0.2148760330578512</v>
       </c>
     </row>
     <row r="8">
@@ -959,13 +1986,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.04958677685950413</v>
       </c>
     </row>
     <row r="9">
@@ -991,10 +2018,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>173.75</v>
+        <v>147.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1018,6 +2045,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1050,13 +2084,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.09130434782608696</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +2101,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.2782608695652174</v>
       </c>
     </row>
     <row r="4">
@@ -1084,13 +2118,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5</v>
+        <v>59.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.3434782608695652</v>
       </c>
     </row>
     <row r="5">
@@ -1101,13 +2135,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="6">
@@ -1118,13 +2152,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.06956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -1135,13 +2169,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="8">
@@ -1152,13 +2186,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -1184,10 +2218,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>157.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1211,6 +2245,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1243,13 +2284,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07327586206896551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1260,13 +2301,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3663793103448276</v>
+        <v>0.2217741935483871</v>
       </c>
     </row>
     <row r="4">
@@ -1277,13 +2318,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>41.25</v>
+        <v>62.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2370689655172414</v>
+        <v>0.3346774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -1294,13 +2335,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1163793103448276</v>
+        <v>0.1008064516129032</v>
       </c>
     </row>
     <row r="6">
@@ -1311,13 +2352,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.1370967741935484</v>
       </c>
     </row>
     <row r="7">
@@ -1328,13 +2369,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.1733870967741936</v>
       </c>
     </row>
     <row r="8">
@@ -1345,13 +2386,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="9">
@@ -1377,10 +2418,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>159.75</v>
+        <v>138.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1404,6 +2445,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1436,13 +2484,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04201680672268908</v>
       </c>
     </row>
     <row r="3">
@@ -1453,13 +2501,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3830645161290323</v>
+        <v>0.3403361344537815</v>
       </c>
     </row>
     <row r="4">
@@ -1470,13 +2518,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>56.25</v>
+        <v>77.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3024193548387097</v>
+        <v>0.4327731092436975</v>
       </c>
     </row>
     <row r="5">
@@ -1487,13 +2535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.03361344537815126</v>
       </c>
     </row>
     <row r="6">
@@ -1504,13 +2552,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.02521008403361345</v>
       </c>
     </row>
     <row r="7">
@@ -1521,13 +2569,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1209677419354839</v>
+        <v>0.06722689075630252</v>
       </c>
     </row>
     <row r="8">
@@ -1538,13 +2586,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="9">
@@ -1570,10 +2618,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>167.25</v>
+        <v>173.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1597,6 +2645,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1646,13 +2701,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.6282051282051282</v>
       </c>
     </row>
     <row r="4">
@@ -1663,13 +2718,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>76.5</v>
+        <v>25.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.1452991452991453</v>
       </c>
     </row>
     <row r="5">
@@ -1680,13 +2735,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1434108527131783</v>
+        <v>0.05982905982905983</v>
       </c>
     </row>
     <row r="6">
@@ -1697,13 +2752,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06589147286821706</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="7">
@@ -1714,13 +2769,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1356589147286822</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="8">
@@ -1731,13 +2786,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06201550387596899</v>
+        <v>0.03418803418803419</v>
       </c>
     </row>
     <row r="9">
@@ -1763,10 +2818,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>150.25</v>
+        <v>182</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1790,6 +2845,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1822,13 +2884,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.07327586206896551</v>
       </c>
     </row>
     <row r="3">
@@ -1839,13 +2901,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.3663793103448276</v>
       </c>
     </row>
     <row r="4">
@@ -1856,13 +2918,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>48.75</v>
+        <v>41.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.251937984496124</v>
+        <v>0.2370689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -1873,13 +2935,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1782945736434109</v>
+        <v>0.1163793103448276</v>
       </c>
     </row>
     <row r="6">
@@ -1890,13 +2952,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06976744186046512</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="7">
@@ -1907,13 +2969,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.189922480620155</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="8">
@@ -1924,13 +2986,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0310077519379845</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="9">
@@ -1956,10 +3018,210 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>148.25</v>
+        <v>159.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2136752136752137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3418803418803419</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1239316239316239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09829059829059829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1709401709401709</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>130.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
